--- a/medicine/Mort/Cimetière_orthodoxe_de_Varsovie/Cimetière_orthodoxe_de_Varsovie.xlsx
+++ b/medicine/Mort/Cimetière_orthodoxe_de_Varsovie/Cimetière_orthodoxe_de_Varsovie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_orthodoxe_de_Varsovie</t>
+          <t>Cimetière_orthodoxe_de_Varsovie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière orthodoxe de Varsovie (polonais : Cmentarz Prawosławny na Woli) est l'une des nécropoles les plus anciennes de Varsovie, dans le quartier de Wola. Il fut aménagé sur 18 hectares au milieu du XIXe siècle pour les Russes qui vivaient alors à Varsovie. On y trouve la tombe du président du conseil municipal de Varsovie entre 1875 et 1892 Sokrates Starynkiewicz.
 Il est surplombé par l'église orthodoxe Saint-Jean-Climaque, de style rostovien.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_orthodoxe_de_Varsovie</t>
+          <t>Cimetière_orthodoxe_de_Varsovie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Alexandre Lvovitch Blok (1852-1909), professeur de Droit, père du poète Alexandre Blok
 Maria Burska-Przybora (1910-2009), cantatrice
